--- a/Code/Results/Cases/Case_1_173/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_173/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.14577354076609</v>
+        <v>23.74456521784683</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.55655313373768</v>
+        <v>9.581584845702061</v>
       </c>
       <c r="E2">
-        <v>18.88628137422269</v>
+        <v>10.56676181936496</v>
       </c>
       <c r="F2">
-        <v>65.40521544955939</v>
+        <v>67.63404625294729</v>
       </c>
       <c r="G2">
-        <v>2.082353878396435</v>
+        <v>3.828652643670688</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.847069795729874</v>
+        <v>8.751089675392741</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.28631950024222</v>
+        <v>15.8261477676847</v>
       </c>
       <c r="M2">
-        <v>16.9767486989161</v>
+        <v>22.67764792265407</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.0652572805259</v>
+        <v>23.62782581568237</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.40452058300894</v>
+        <v>9.251384897604128</v>
       </c>
       <c r="E3">
-        <v>17.5150511961533</v>
+        <v>9.94356199153588</v>
       </c>
       <c r="F3">
-        <v>62.15758183206134</v>
+        <v>67.13156621350963</v>
       </c>
       <c r="G3">
-        <v>2.106091737105528</v>
+        <v>3.836024405256647</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.39078079213836</v>
+        <v>8.599196511442869</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.37887551775795</v>
+        <v>15.76632709752477</v>
       </c>
       <c r="M3">
-        <v>16.19356953069656</v>
+        <v>22.63978301522346</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.39786712493965</v>
+        <v>23.56302650621591</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.67564657318456</v>
+        <v>9.046475311849449</v>
       </c>
       <c r="E4">
-        <v>16.64730955747201</v>
+        <v>9.539646327897492</v>
       </c>
       <c r="F4">
-        <v>60.19212880732415</v>
+        <v>66.83880945373981</v>
       </c>
       <c r="G4">
-        <v>2.120700753282056</v>
+        <v>3.840771993281896</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.106888872413647</v>
+        <v>8.503077729561562</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.92079461166488</v>
+        <v>15.73463869800957</v>
       </c>
       <c r="M4">
-        <v>15.71747551471782</v>
+        <v>22.62283977775602</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.12496094816837</v>
+        <v>23.53836948625679</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.37270615389467</v>
+        <v>8.962568374976183</v>
       </c>
       <c r="E5">
-        <v>16.2866292984473</v>
+        <v>9.369732301358361</v>
       </c>
       <c r="F5">
-        <v>59.39770000560115</v>
+        <v>66.72352425234671</v>
       </c>
       <c r="G5">
-        <v>2.126679218589558</v>
+        <v>3.842762629703776</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.990095770705473</v>
+        <v>8.463206854985817</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.73391062754387</v>
+        <v>15.7230006184811</v>
       </c>
       <c r="M5">
-        <v>15.52465363464667</v>
+        <v>22.61752387789361</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.0795919892298</v>
+        <v>23.53438137149175</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.32203237677681</v>
+        <v>8.948615535782338</v>
       </c>
       <c r="E6">
-        <v>16.22629668546854</v>
+        <v>9.341198373760085</v>
       </c>
       <c r="F6">
-        <v>59.26616524415482</v>
+        <v>66.70462508044847</v>
       </c>
       <c r="G6">
-        <v>2.127673897457725</v>
+        <v>3.843096561982585</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.970631619740358</v>
+        <v>8.456544442568052</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.70286619690664</v>
+        <v>15.72114532665927</v>
       </c>
       <c r="M6">
-        <v>15.49270869139982</v>
+        <v>22.61673718307372</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.39419027018768</v>
+        <v>23.5626868667305</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.67158558724574</v>
+        <v>9.0453451596668</v>
       </c>
       <c r="E7">
-        <v>16.64247460941516</v>
+        <v>9.537376276938026</v>
       </c>
       <c r="F7">
-        <v>60.18138916436043</v>
+        <v>66.83723835747649</v>
       </c>
       <c r="G7">
-        <v>2.120781258877222</v>
+        <v>3.840798612727804</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.105318420711088</v>
+        <v>8.502542835835262</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.91827508517633</v>
+        <v>15.73447657098496</v>
       </c>
       <c r="M7">
-        <v>15.71487019224869</v>
+        <v>22.62276165057973</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.77402777910089</v>
+        <v>23.70289812778019</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>14.16346677469643</v>
+        <v>9.468262156683602</v>
       </c>
       <c r="E8">
-        <v>18.41845143613443</v>
+        <v>10.35631325013862</v>
       </c>
       <c r="F8">
-        <v>64.27896615168186</v>
+        <v>67.4575511998592</v>
       </c>
       <c r="G8">
-        <v>2.090542559026408</v>
+        <v>3.831148683796122</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.690398952674744</v>
+        <v>8.699319192579019</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.93773956221021</v>
+        <v>15.80448014382632</v>
       </c>
       <c r="M8">
-        <v>16.70568305318708</v>
+        <v>22.66328545393848</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.45298698004301</v>
+        <v>24.03146355904677</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.94664155935184</v>
+        <v>10.27480272887891</v>
       </c>
       <c r="E9">
-        <v>21.72964886485108</v>
+        <v>11.79256163426518</v>
       </c>
       <c r="F9">
-        <v>72.59570396489937</v>
+        <v>68.79652098787132</v>
       </c>
       <c r="G9">
-        <v>2.030585052331392</v>
+        <v>3.813966951352783</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.81881977260285</v>
+        <v>9.06186740468379</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.38874905268658</v>
+        <v>15.98135868313061</v>
       </c>
       <c r="M9">
-        <v>19.05616063375502</v>
+        <v>22.79260128214048</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.58383859656962</v>
+        <v>24.30408155643881</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>18.95638040584899</v>
+        <v>10.84672752465685</v>
       </c>
       <c r="E10">
-        <v>24.11950686256164</v>
+        <v>12.74367458142317</v>
       </c>
       <c r="F10">
-        <v>79.0026481198864</v>
+        <v>69.85105592517245</v>
       </c>
       <c r="G10">
-        <v>1.984442430243329</v>
+        <v>3.802385472961732</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.657826608313</v>
+        <v>9.313185572820913</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>17.13277604692931</v>
+        <v>16.13480921392114</v>
       </c>
       <c r="M10">
-        <v>21.1645488881579</v>
+        <v>22.9176661488088</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.62056905477296</v>
+        <v>24.43452476981533</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.87991897017485</v>
+        <v>11.10122640144792</v>
       </c>
       <c r="E11">
-        <v>25.21780258144911</v>
+        <v>13.1537454187919</v>
       </c>
       <c r="F11">
-        <v>82.02981885248637</v>
+        <v>70.34519936348151</v>
       </c>
       <c r="G11">
-        <v>1.962447013375966</v>
+        <v>3.797338694761532</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.04927221007583</v>
+        <v>9.42409482693669</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>17.92649476990707</v>
+        <v>16.20955112398211</v>
       </c>
       <c r="M11">
-        <v>22.11885469739178</v>
+        <v>22.98098899419965</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.01418892193946</v>
+        <v>24.48481151996785</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>20.23302409233842</v>
+        <v>11.19669705337577</v>
       </c>
       <c r="E12">
-        <v>25.63779704984547</v>
+        <v>13.30578341386607</v>
       </c>
       <c r="F12">
-        <v>83.19859038727256</v>
+        <v>70.53430368967136</v>
       </c>
       <c r="G12">
-        <v>1.953906792726751</v>
+        <v>3.795459148676798</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.19986960458439</v>
+        <v>9.465590086313378</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>18.22863443518806</v>
+        <v>16.23854734957902</v>
       </c>
       <c r="M12">
-        <v>22.4811550853855</v>
+        <v>23.00588179518303</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.92934022776982</v>
+        <v>24.47394230493749</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>20.15678546715233</v>
+        <v>11.17617715569272</v>
       </c>
       <c r="E13">
-        <v>25.54711180746346</v>
+        <v>13.27318364552404</v>
       </c>
       <c r="F13">
-        <v>82.9457485651574</v>
+        <v>70.493490010668</v>
       </c>
       <c r="G13">
-        <v>1.955756791918202</v>
+        <v>3.795862544073415</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.16731112843462</v>
+        <v>9.456675926820743</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>18.16346283850897</v>
+        <v>16.23227194875431</v>
       </c>
       <c r="M13">
-        <v>22.40305393701606</v>
+        <v>23.0004802290501</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.65292122754486</v>
+        <v>24.43864423756425</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.9088869912324</v>
+        <v>11.10909937891622</v>
       </c>
       <c r="E14">
-        <v>25.25225613667114</v>
+        <v>13.16631872374413</v>
       </c>
       <c r="F14">
-        <v>82.12547951678705</v>
+        <v>70.36071789242982</v>
       </c>
       <c r="G14">
-        <v>1.961749101344714</v>
+        <v>3.797183432722681</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.06160768835042</v>
+        <v>9.427518828415176</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.95130968960024</v>
+        <v>16.21192287098803</v>
       </c>
       <c r="M14">
-        <v>22.14863147556871</v>
+        <v>22.98301869235826</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.48379437567392</v>
+        <v>24.41713812728944</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.75755558248875</v>
+        <v>11.06789236281832</v>
       </c>
       <c r="E15">
-        <v>25.07227121594178</v>
+        <v>13.10043815588341</v>
       </c>
       <c r="F15">
-        <v>81.62619308469779</v>
+        <v>70.27964656382618</v>
       </c>
       <c r="G15">
-        <v>1.965389700067009</v>
+        <v>3.797996615565408</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.99720417944924</v>
+        <v>9.409593321371108</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>17.82161950850525</v>
+        <v>16.19954821424743</v>
       </c>
       <c r="M15">
-        <v>21.99296867071347</v>
+        <v>22.97244165902861</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.51613808116734</v>
+        <v>24.29568329859642</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>18.89637104018026</v>
+        <v>10.82997361907974</v>
       </c>
       <c r="E16">
-        <v>24.04814823146633</v>
+        <v>12.71642091986</v>
       </c>
       <c r="F16">
-        <v>78.80756186576041</v>
+        <v>69.81904509010639</v>
       </c>
       <c r="G16">
-        <v>1.985854484271502</v>
+        <v>3.802719725540603</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.63251548020792</v>
+        <v>9.30586756163995</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>17.08103043726577</v>
+        <v>16.13002258428392</v>
       </c>
       <c r="M16">
-        <v>21.10221193030488</v>
+        <v>22.91365634643884</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.9226177841085</v>
+        <v>24.22279767914853</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>18.37168998878124</v>
+        <v>10.68250021490456</v>
       </c>
       <c r="E17">
-        <v>23.42424966607807</v>
+        <v>12.47505198629893</v>
       </c>
       <c r="F17">
-        <v>77.11099935476803</v>
+        <v>69.54011284042801</v>
       </c>
       <c r="G17">
-        <v>1.998110978787886</v>
+        <v>3.805673754835386</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.41187211881868</v>
+        <v>9.24135097722524</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.62772434839487</v>
+        <v>16.08862369015085</v>
       </c>
       <c r="M17">
-        <v>20.55551815103362</v>
+        <v>22.87923308438152</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.58084075744744</v>
+        <v>24.181482949625</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18.07062789987528</v>
+        <v>10.59714800042299</v>
       </c>
       <c r="E18">
-        <v>23.06625882804508</v>
+        <v>12.33409579253035</v>
       </c>
       <c r="F18">
-        <v>76.145294498504</v>
+        <v>69.38104245457396</v>
       </c>
       <c r="G18">
-        <v>2.005071031539177</v>
+        <v>3.807393720581702</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.28581032020319</v>
+        <v>9.203921830092732</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.36691262399881</v>
+        <v>16.06527787687703</v>
       </c>
       <c r="M18">
-        <v>20.24049952977035</v>
+        <v>22.86003970846786</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.46501587872379</v>
+        <v>24.16759976649367</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.96876578883847</v>
+        <v>10.56816109554217</v>
       </c>
       <c r="E19">
-        <v>22.94513436661654</v>
+        <v>12.28600509847016</v>
       </c>
       <c r="F19">
-        <v>75.81990723788216</v>
+        <v>69.32742096686056</v>
       </c>
       <c r="G19">
-        <v>2.007413879927899</v>
+        <v>3.807979668363181</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.24324960664147</v>
+        <v>9.191194239563115</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.27855372960575</v>
+        <v>16.05745386616771</v>
       </c>
       <c r="M19">
-        <v>20.13370008646532</v>
+        <v>22.85364554700832</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.98583146994959</v>
+        <v>24.2304938780053</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>18.42745600366939</v>
+        <v>10.69825446445911</v>
       </c>
       <c r="E20">
-        <v>23.49056049914955</v>
+        <v>12.50096627053782</v>
       </c>
       <c r="F20">
-        <v>77.29051695214135</v>
+        <v>69.56966513203925</v>
       </c>
       <c r="G20">
-        <v>1.996815933664237</v>
+        <v>3.805357134040585</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.43526654613073</v>
+        <v>9.248252183817373</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.6759786307017</v>
+        <v>16.09298258873571</v>
       </c>
       <c r="M20">
-        <v>20.61376412811502</v>
+        <v>22.88283485791623</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.73406958228836</v>
+        <v>24.44898823700969</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.98158899453282</v>
+        <v>11.12882688431688</v>
       </c>
       <c r="E21">
-        <v>25.3387267970189</v>
+        <v>13.19779562676601</v>
       </c>
       <c r="F21">
-        <v>82.36574057449153</v>
+        <v>70.39966322138753</v>
       </c>
       <c r="G21">
-        <v>1.959995393101625</v>
+        <v>3.796794601760962</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.09258161457974</v>
+        <v>9.436096738025125</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>18.01356653650047</v>
+        <v>16.21788121810454</v>
       </c>
       <c r="M21">
-        <v>22.22332061173077</v>
+        <v>22.98812286095886</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.88381741349753</v>
+        <v>24.59696214376301</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>21.01858217894647</v>
+        <v>11.40493690994145</v>
       </c>
       <c r="E22">
-        <v>26.5723988961643</v>
+        <v>13.63429175801279</v>
       </c>
       <c r="F22">
-        <v>85.81854803595995</v>
+        <v>70.95362737792664</v>
       </c>
       <c r="G22">
-        <v>1.934650057031482</v>
+        <v>3.791382293182824</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.53672225146976</v>
+        <v>9.555923212776296</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.89810769205846</v>
+        <v>16.30354089401507</v>
       </c>
       <c r="M22">
-        <v>23.28188529938653</v>
+        <v>23.06225515648643</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.26886846285998</v>
+        <v>24.51752365912644</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>20.46228106558385</v>
+        <v>11.25808226448171</v>
       </c>
       <c r="E23">
-        <v>25.91051369125053</v>
+        <v>13.40305528776704</v>
       </c>
       <c r="F23">
-        <v>83.9604868148962</v>
+        <v>70.65694440663435</v>
       </c>
       <c r="G23">
-        <v>1.948323506938163</v>
+        <v>3.794254232751707</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.29791854131727</v>
+        <v>9.492242479714779</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>18.42440095865933</v>
+        <v>16.25745971650353</v>
       </c>
       <c r="M23">
-        <v>22.71560112585362</v>
+        <v>23.02220643416072</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.95725439163226</v>
+        <v>24.22701259191325</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>18.40224251238242</v>
+        <v>10.69113373007436</v>
       </c>
       <c r="E24">
-        <v>23.46057937560726</v>
+        <v>12.48925724405764</v>
       </c>
       <c r="F24">
-        <v>77.20932735587544</v>
+        <v>69.55630051139565</v>
       </c>
       <c r="G24">
-        <v>1.997401687921746</v>
+        <v>3.805500210827351</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.42468753474991</v>
+        <v>9.245133199238619</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.65416359959357</v>
+        <v>16.09101051232221</v>
       </c>
       <c r="M24">
-        <v>20.5874334689171</v>
+        <v>22.88120463572297</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.72991360860516</v>
+        <v>23.93698029771536</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.20440732999086</v>
+        <v>10.05979205830288</v>
       </c>
       <c r="E25">
-        <v>20.84685481829871</v>
+        <v>11.42227782905385</v>
       </c>
       <c r="F25">
-        <v>70.305745387012</v>
+        <v>68.42155246707961</v>
       </c>
       <c r="G25">
-        <v>2.047024676059377</v>
+        <v>3.818430646247676</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.51377117839803</v>
+        <v>8.966374792038232</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.73904883805073</v>
+        <v>15.92932901113056</v>
       </c>
       <c r="M25">
-        <v>18.26721749551643</v>
+        <v>22.75231014120296</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_173/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_173/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.74456521784683</v>
+        <v>20.1457735407661</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.581584845702061</v>
+        <v>14.55655313373768</v>
       </c>
       <c r="E2">
-        <v>10.56676181936496</v>
+        <v>18.88628137422274</v>
       </c>
       <c r="F2">
-        <v>67.63404625294729</v>
+        <v>65.40521544955929</v>
       </c>
       <c r="G2">
-        <v>3.828652643670688</v>
+        <v>2.082353878396435</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.751089675392741</v>
+        <v>9.847069795729951</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.8261477676847</v>
+        <v>13.28631950024229</v>
       </c>
       <c r="M2">
-        <v>22.67764792265407</v>
+        <v>16.97674869891613</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.62782581568237</v>
+        <v>19.06525728052585</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.251384897604128</v>
+        <v>13.40452058300892</v>
       </c>
       <c r="E3">
-        <v>9.94356199153588</v>
+        <v>17.51505119615319</v>
       </c>
       <c r="F3">
-        <v>67.13156621350963</v>
+        <v>62.15758183206152</v>
       </c>
       <c r="G3">
-        <v>3.836024405256647</v>
+        <v>2.106091737105666</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.599196511442869</v>
+        <v>9.390780792138338</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.76632709752477</v>
+        <v>12.37887551775788</v>
       </c>
       <c r="M3">
-        <v>22.63978301522346</v>
+        <v>16.19356953069649</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.56302650621591</v>
+        <v>18.39786712493964</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.046475311849449</v>
+        <v>12.67564657318454</v>
       </c>
       <c r="E4">
-        <v>9.539646327897492</v>
+        <v>16.64730955747208</v>
       </c>
       <c r="F4">
-        <v>66.83880945373981</v>
+        <v>60.19212880732398</v>
       </c>
       <c r="G4">
-        <v>3.840771993281896</v>
+        <v>2.120700753281921</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.503077729561562</v>
+        <v>9.106888872413723</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.73463869800957</v>
+        <v>11.92079461166493</v>
       </c>
       <c r="M4">
-        <v>22.62283977775602</v>
+        <v>15.71747551471786</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.53836948625679</v>
+        <v>18.1249609481683</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.962568374976183</v>
+        <v>12.37270615389464</v>
       </c>
       <c r="E5">
-        <v>9.369732301358361</v>
+        <v>16.2866292984474</v>
       </c>
       <c r="F5">
-        <v>66.72352425234671</v>
+        <v>59.3977000056011</v>
       </c>
       <c r="G5">
-        <v>3.842762629703776</v>
+        <v>2.126679218589574</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.463206854985817</v>
+        <v>8.990095770705613</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.7230006184811</v>
+        <v>11.73391062754386</v>
       </c>
       <c r="M5">
-        <v>22.61752387789361</v>
+        <v>15.52465363464663</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.53438137149175</v>
+        <v>18.07959198922973</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.948615535782338</v>
+        <v>12.32203237677681</v>
       </c>
       <c r="E6">
-        <v>9.341198373760085</v>
+        <v>16.22629668546869</v>
       </c>
       <c r="F6">
-        <v>66.70462508044847</v>
+        <v>59.26616524415471</v>
       </c>
       <c r="G6">
-        <v>3.843096561982585</v>
+        <v>2.127673897457983</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.456544442568052</v>
+        <v>8.970631619740526</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.72114532665927</v>
+        <v>11.70286619690657</v>
       </c>
       <c r="M6">
-        <v>22.61673718307372</v>
+        <v>15.49270869139974</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.5626868667305</v>
+        <v>18.39419027018761</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.0453451596668</v>
+        <v>12.67158558724578</v>
       </c>
       <c r="E7">
-        <v>9.537376276938026</v>
+        <v>16.64247460941525</v>
       </c>
       <c r="F7">
-        <v>66.83723835747649</v>
+        <v>60.18138916436059</v>
       </c>
       <c r="G7">
-        <v>3.840798612727804</v>
+        <v>2.120781258876818</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.502542835835262</v>
+        <v>9.105318420711207</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.73447657098496</v>
+        <v>11.91827508517635</v>
       </c>
       <c r="M7">
-        <v>22.62276165057973</v>
+        <v>15.71487019224868</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.70289812778019</v>
+        <v>19.77402777910087</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.468262156683602</v>
+        <v>14.16346677469652</v>
       </c>
       <c r="E8">
-        <v>10.35631325013862</v>
+        <v>18.41845143613437</v>
       </c>
       <c r="F8">
-        <v>67.4575511998592</v>
+        <v>64.27896615168194</v>
       </c>
       <c r="G8">
-        <v>3.831148683796122</v>
+        <v>2.090542559026408</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.699319192579019</v>
+        <v>9.69039895267462</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.80448014382632</v>
+        <v>12.93773956221026</v>
       </c>
       <c r="M8">
-        <v>22.66328545393848</v>
+        <v>16.70568305318705</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.03146355904677</v>
+        <v>22.45298698004301</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.27480272887891</v>
+        <v>16.94664155935189</v>
       </c>
       <c r="E9">
-        <v>11.79256163426518</v>
+        <v>21.72964886485132</v>
       </c>
       <c r="F9">
-        <v>68.79652098787132</v>
+        <v>72.59570396489939</v>
       </c>
       <c r="G9">
-        <v>3.813966951352783</v>
+        <v>2.030585052331245</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.06186740468379</v>
+        <v>10.81881977260305</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>15.98135868313061</v>
+        <v>15.38874905268668</v>
       </c>
       <c r="M9">
-        <v>22.79260128214048</v>
+        <v>19.05616063375513</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.30408155643881</v>
+        <v>24.5838385965696</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.84672752465685</v>
+        <v>18.95638040584909</v>
       </c>
       <c r="E10">
-        <v>12.74367458142317</v>
+        <v>24.1195068625618</v>
       </c>
       <c r="F10">
-        <v>69.85105592517245</v>
+        <v>79.00264811988656</v>
       </c>
       <c r="G10">
-        <v>3.802385472961732</v>
+        <v>1.984442430243177</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.313185572820913</v>
+        <v>11.6578266083131</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.13480921392114</v>
+        <v>17.1327760469293</v>
       </c>
       <c r="M10">
-        <v>22.9176661488088</v>
+        <v>21.16454888815789</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.43452476981533</v>
+        <v>25.62056905477287</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.10122640144792</v>
+        <v>19.8799189701748</v>
       </c>
       <c r="E11">
-        <v>13.1537454187919</v>
+        <v>25.21780258144917</v>
       </c>
       <c r="F11">
-        <v>70.34519936348151</v>
+        <v>82.02981885248659</v>
       </c>
       <c r="G11">
-        <v>3.797338694761532</v>
+        <v>1.9624470133761</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.42409482693669</v>
+        <v>12.04927221007591</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.20955112398211</v>
+        <v>17.92649476990718</v>
       </c>
       <c r="M11">
-        <v>22.98098899419965</v>
+        <v>22.11885469739178</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.48481151996785</v>
+        <v>26.01418892193949</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11.19669705337577</v>
+        <v>20.23302409233855</v>
       </c>
       <c r="E12">
-        <v>13.30578341386607</v>
+        <v>25.63779704984565</v>
       </c>
       <c r="F12">
-        <v>70.53430368967136</v>
+        <v>83.1985903872728</v>
       </c>
       <c r="G12">
-        <v>3.795459148676798</v>
+        <v>1.953906792726884</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.465590086313378</v>
+        <v>12.1998696045845</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>16.23854734957902</v>
+        <v>18.22863443518813</v>
       </c>
       <c r="M12">
-        <v>23.00588179518303</v>
+        <v>22.48115508538557</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.47394230493749</v>
+        <v>25.92934022776979</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>11.17617715569272</v>
+        <v>20.15678546715238</v>
       </c>
       <c r="E13">
-        <v>13.27318364552404</v>
+        <v>25.54711180746353</v>
       </c>
       <c r="F13">
-        <v>70.493490010668</v>
+        <v>82.94574856515737</v>
       </c>
       <c r="G13">
-        <v>3.795862544073415</v>
+        <v>1.955756791918064</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.456675926820743</v>
+        <v>12.16731112843471</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.23227194875431</v>
+        <v>18.16346283850901</v>
       </c>
       <c r="M13">
-        <v>23.0004802290501</v>
+        <v>22.40305393701609</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.43864423756425</v>
+        <v>25.65292122754493</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.10909937891622</v>
+        <v>19.90888699123244</v>
       </c>
       <c r="E14">
-        <v>13.16631872374413</v>
+        <v>25.25225613667121</v>
       </c>
       <c r="F14">
-        <v>70.36071789242982</v>
+        <v>82.12547951678731</v>
       </c>
       <c r="G14">
-        <v>3.797183432722681</v>
+        <v>1.961749101344843</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.427518828415176</v>
+        <v>12.06160768835041</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.21192287098803</v>
+        <v>17.95130968960032</v>
       </c>
       <c r="M14">
-        <v>22.98301869235826</v>
+        <v>22.14863147556881</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.41713812728944</v>
+        <v>25.48379437567386</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.06789236281832</v>
+        <v>19.75755558248861</v>
       </c>
       <c r="E15">
-        <v>13.10043815588341</v>
+        <v>25.07227121594152</v>
       </c>
       <c r="F15">
-        <v>70.27964656382618</v>
+        <v>81.62619308469756</v>
       </c>
       <c r="G15">
-        <v>3.797996615565408</v>
+        <v>1.965389700067143</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.409593321371108</v>
+        <v>11.99720417944912</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.19954821424743</v>
+        <v>17.82161950850512</v>
       </c>
       <c r="M15">
-        <v>22.97244165902861</v>
+        <v>21.99296867071337</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.29568329859642</v>
+        <v>24.51613808116732</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.82997361907974</v>
+        <v>18.89637104018017</v>
       </c>
       <c r="E16">
-        <v>12.71642091986</v>
+        <v>24.04814823146641</v>
       </c>
       <c r="F16">
-        <v>69.81904509010639</v>
+        <v>78.80756186576029</v>
       </c>
       <c r="G16">
-        <v>3.802719725540603</v>
+        <v>1.985854484271769</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.30586756163995</v>
+        <v>11.63251548020794</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.13002258428392</v>
+        <v>17.0810304372657</v>
       </c>
       <c r="M16">
-        <v>22.91365634643884</v>
+        <v>21.10221193030483</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.22279767914853</v>
+        <v>23.92261778410846</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.68250021490456</v>
+        <v>18.37168998878128</v>
       </c>
       <c r="E17">
-        <v>12.47505198629893</v>
+        <v>23.42424966607816</v>
       </c>
       <c r="F17">
-        <v>69.54011284042801</v>
+        <v>77.11099935476807</v>
       </c>
       <c r="G17">
-        <v>3.805673754835386</v>
+        <v>1.99811097878789</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.24135097722524</v>
+        <v>11.4118721188188</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>16.08862369015085</v>
+        <v>16.62772434839485</v>
       </c>
       <c r="M17">
-        <v>22.87923308438152</v>
+        <v>20.5555181510336</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.181482949625</v>
+        <v>23.5808407574475</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.59714800042299</v>
+        <v>18.07062789987533</v>
       </c>
       <c r="E18">
-        <v>12.33409579253035</v>
+        <v>23.06625882804508</v>
       </c>
       <c r="F18">
-        <v>69.38104245457396</v>
+        <v>76.14529449850434</v>
       </c>
       <c r="G18">
-        <v>3.807393720581702</v>
+        <v>2.00507103153931</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.203921830092732</v>
+        <v>11.28581032020319</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>16.06527787687703</v>
+        <v>16.3669126239989</v>
       </c>
       <c r="M18">
-        <v>22.86003970846786</v>
+        <v>20.24049952977045</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.16759976649367</v>
+        <v>23.46501587872388</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.56816109554217</v>
+        <v>17.9687657888385</v>
       </c>
       <c r="E19">
-        <v>12.28600509847016</v>
+        <v>22.94513436661643</v>
       </c>
       <c r="F19">
-        <v>69.32742096686056</v>
+        <v>75.81990723788206</v>
       </c>
       <c r="G19">
-        <v>3.807979668363181</v>
+        <v>2.007413879927912</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.191194239563115</v>
+        <v>11.24324960664131</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.05745386616771</v>
+        <v>16.27855372960572</v>
       </c>
       <c r="M19">
-        <v>22.85364554700832</v>
+        <v>20.13370008646537</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.2304938780053</v>
+        <v>23.98583146994957</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.69825446445911</v>
+        <v>18.42745600366941</v>
       </c>
       <c r="E20">
-        <v>12.50096627053782</v>
+        <v>23.49056049914948</v>
       </c>
       <c r="F20">
-        <v>69.56966513203925</v>
+        <v>77.2905169521416</v>
       </c>
       <c r="G20">
-        <v>3.805357134040585</v>
+        <v>1.996815933664393</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.248252183817373</v>
+        <v>11.43526654613069</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>16.09298258873571</v>
+        <v>16.67597863070182</v>
       </c>
       <c r="M20">
-        <v>22.88283485791623</v>
+        <v>20.61376412811507</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.44898823700969</v>
+        <v>25.73406958228831</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>11.12882688431688</v>
+        <v>19.98158899453283</v>
       </c>
       <c r="E21">
-        <v>13.19779562676601</v>
+        <v>25.33872679701897</v>
       </c>
       <c r="F21">
-        <v>70.39966322138753</v>
+        <v>82.36574057449172</v>
       </c>
       <c r="G21">
-        <v>3.796794601760962</v>
+        <v>1.959995393101665</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.436096738025125</v>
+        <v>12.0925816145798</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.21788121810454</v>
+        <v>18.0135665365005</v>
       </c>
       <c r="M21">
-        <v>22.98812286095886</v>
+        <v>22.22332061173077</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.59696214376301</v>
+        <v>26.88381741349757</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.40493690994145</v>
+        <v>21.01858217894648</v>
       </c>
       <c r="E22">
-        <v>13.63429175801279</v>
+        <v>26.57239889616447</v>
       </c>
       <c r="F22">
-        <v>70.95362737792664</v>
+        <v>85.81854803596039</v>
       </c>
       <c r="G22">
-        <v>3.791382293182824</v>
+        <v>1.934650057031588</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.555923212776296</v>
+        <v>12.53672225146985</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.30354089401507</v>
+        <v>18.89810769205867</v>
       </c>
       <c r="M22">
-        <v>23.06225515648643</v>
+        <v>23.28188529938668</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.51752365912644</v>
+        <v>26.26886846285998</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.25808226448171</v>
+        <v>20.46228106558382</v>
       </c>
       <c r="E23">
-        <v>13.40305528776704</v>
+        <v>25.91051369125049</v>
       </c>
       <c r="F23">
-        <v>70.65694440663435</v>
+        <v>83.96048681489633</v>
       </c>
       <c r="G23">
-        <v>3.794254232751707</v>
+        <v>1.948323506938153</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.492242479714779</v>
+        <v>12.29791854131724</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.25745971650353</v>
+        <v>18.42440095865931</v>
       </c>
       <c r="M23">
-        <v>23.02220643416072</v>
+        <v>22.71560112585363</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.22701259191325</v>
+        <v>23.9572543916323</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.69113373007436</v>
+        <v>18.40224251238258</v>
       </c>
       <c r="E24">
-        <v>12.48925724405764</v>
+        <v>23.46057937560736</v>
       </c>
       <c r="F24">
-        <v>69.55630051139565</v>
+        <v>77.20932735587557</v>
       </c>
       <c r="G24">
-        <v>3.805500210827351</v>
+        <v>1.99740168792175</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.245133199238619</v>
+        <v>11.42468753474992</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>16.09101051232221</v>
+        <v>16.65416359959361</v>
       </c>
       <c r="M24">
-        <v>22.88120463572297</v>
+        <v>20.58743346891715</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.93698029771536</v>
+        <v>21.72991360860517</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.05979205830288</v>
+        <v>16.20440732999089</v>
       </c>
       <c r="E25">
-        <v>11.42227782905385</v>
+        <v>20.84685481829873</v>
       </c>
       <c r="F25">
-        <v>68.42155246707961</v>
+        <v>70.30574538701173</v>
       </c>
       <c r="G25">
-        <v>3.818430646247676</v>
+        <v>2.047024676059267</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.966374792038232</v>
+        <v>10.51377117839805</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>15.92932901113056</v>
+        <v>14.73904883805068</v>
       </c>
       <c r="M25">
-        <v>22.75231014120296</v>
+        <v>18.2672174955164</v>
       </c>
       <c r="N25">
         <v>0</v>
